--- a/RAAL/Weather_data/GHI_2024-02-02.xlsx
+++ b/RAAL/Weather_data/GHI_2024-02-02.xlsx
@@ -487,22 +487,22 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>2531.69</v>
+        <v>2531.71</v>
       </c>
       <c r="H2">
-        <v>5706.12</v>
+        <v>5706.21</v>
       </c>
       <c r="I2">
         <v>668.3200000000001</v>
       </c>
       <c r="J2">
-        <v>733.3</v>
+        <v>681.29</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>733.3</v>
+        <v>681.29</v>
       </c>
     </row>
   </sheetData>
@@ -878,13 +878,13 @@
         <v>2.52</v>
       </c>
       <c r="K9">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -913,19 +913,19 @@
         <v>72.92</v>
       </c>
       <c r="I10">
-        <v>343.85</v>
+        <v>343.89</v>
       </c>
       <c r="J10">
         <v>40.19</v>
       </c>
       <c r="K10">
-        <v>20.48</v>
+        <v>21.14</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.48</v>
+        <v>21.14</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -951,13 +951,13 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <v>207.47</v>
+        <v>207.48</v>
       </c>
       <c r="I11">
-        <v>591.46</v>
+        <v>591.51</v>
       </c>
       <c r="J11">
-        <v>66.92</v>
+        <v>66.91</v>
       </c>
       <c r="K11">
         <v>51.87</v>
@@ -992,10 +992,10 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <v>325.67</v>
+        <v>325.68</v>
       </c>
       <c r="I12">
-        <v>702.54</v>
+        <v>702.5700000000001</v>
       </c>
       <c r="J12">
         <v>81.65000000000001</v>
@@ -1036,19 +1036,19 @@
         <v>405.29</v>
       </c>
       <c r="I13">
-        <v>756.2</v>
+        <v>756.23</v>
       </c>
       <c r="J13">
         <v>89.64</v>
       </c>
       <c r="K13">
-        <v>101.36</v>
+        <v>101.41</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>101.36</v>
+        <v>101.41</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1083,13 +1083,13 @@
         <v>92.43000000000001</v>
       </c>
       <c r="K14">
-        <v>123.07</v>
+        <v>115.5</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>123.07</v>
+        <v>115.5</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1124,13 +1124,13 @@
         <v>90.43000000000001</v>
       </c>
       <c r="K15">
-        <v>141.92</v>
+        <v>119.96</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>141.92</v>
+        <v>119.96</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1159,19 +1159,19 @@
         <v>341.85</v>
       </c>
       <c r="I16">
-        <v>714.5</v>
+        <v>714.48</v>
       </c>
       <c r="J16">
         <v>83.37</v>
       </c>
       <c r="K16">
-        <v>113.43</v>
+        <v>97.11</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>113.43</v>
+        <v>97.11</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1197,22 +1197,22 @@
         <v>15</v>
       </c>
       <c r="H17">
-        <v>228.96</v>
+        <v>228.95</v>
       </c>
       <c r="I17">
-        <v>615.6799999999999</v>
+        <v>615.65</v>
       </c>
       <c r="J17">
         <v>69.95</v>
       </c>
       <c r="K17">
-        <v>65.02</v>
+        <v>61.01</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>65.02</v>
+        <v>61.01</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1241,19 +1241,19 @@
         <v>94.48</v>
       </c>
       <c r="I18">
-        <v>402.74</v>
+        <v>402.73</v>
       </c>
       <c r="J18">
         <v>46.02</v>
       </c>
       <c r="K18">
-        <v>32.35</v>
+        <v>29.62</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>32.35</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1288,13 +1288,13 @@
         <v>5.2</v>
       </c>
       <c r="K19">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="20" spans="1:13">
